--- a/source-data/bolivia/bolivia_total_source_latest.xlsx
+++ b/source-data/bolivia/bolivia_total_source_latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/bolivia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70994FF8-121D-BA49-A209-7215452A2423}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1F7E29-3293-C146-99C4-72C194F8608A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8660" yWindow="460" windowWidth="28020" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Pando</t>
   </si>
   <si>
-    <t>Potosi</t>
-  </si>
-  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>BO-T</t>
+  </si>
+  <si>
+    <t>Potosí</t>
   </si>
 </sst>
 </file>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FB6158-2A9B-AE41-86A6-7BF9A4319B41}">
   <dimension ref="A1:I604"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="C412" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>480308</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>480308</v>
@@ -1051,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>480308</v>
@@ -1080,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>480308</v>
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>480308</v>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>480308</v>
@@ -1167,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>480308</v>
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>480308</v>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>480308</v>
@@ -1254,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>480308</v>
@@ -1283,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>480308</v>
@@ -1312,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>480308</v>
@@ -1341,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>480308</v>
@@ -1370,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>480308</v>
@@ -1399,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>480308</v>
@@ -1428,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>480308</v>
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>480308</v>
@@ -1486,7 +1486,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>480308</v>
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>480308</v>
@@ -1544,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>480308</v>
@@ -1573,7 +1573,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>480308</v>
@@ -1602,7 +1602,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>480308</v>
@@ -1631,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>480308</v>
@@ -1660,7 +1660,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>480308</v>
@@ -1689,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>480308</v>
@@ -1718,7 +1718,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>480308</v>
@@ -1747,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>480308</v>
@@ -1776,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>480308</v>
@@ -1805,7 +1805,7 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>480308</v>
@@ -1834,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>480308</v>
@@ -1863,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>480308</v>
@@ -1892,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>480308</v>
@@ -1921,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>480308</v>
@@ -1950,7 +1950,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>480308</v>
@@ -1979,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>480308</v>
@@ -2008,7 +2008,7 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>480308</v>
@@ -2037,7 +2037,7 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <v>480308</v>
@@ -2066,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>480308</v>
@@ -2095,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>480308</v>
@@ -2124,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41">
         <v>480308</v>
@@ -2153,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42">
         <v>480308</v>
@@ -2182,7 +2182,7 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43">
         <v>480308</v>
@@ -2211,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>480308</v>
@@ -2240,7 +2240,7 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <v>480308</v>
@@ -2269,7 +2269,7 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46">
         <v>480308</v>
@@ -2298,7 +2298,7 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47">
         <v>480308</v>
@@ -2327,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48">
         <v>480308</v>
@@ -2356,7 +2356,7 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49">
         <v>480308</v>
@@ -2385,7 +2385,7 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50">
         <v>480308</v>
@@ -2414,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51">
         <v>480308</v>
@@ -2443,7 +2443,7 @@
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52">
         <v>480308</v>
@@ -2472,7 +2472,7 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53">
         <v>480308</v>
@@ -2501,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54">
         <v>480308</v>
@@ -2530,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55">
         <v>480308</v>
@@ -2559,7 +2559,7 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56">
         <v>480308</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57">
         <v>480308</v>
@@ -2617,7 +2617,7 @@
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58">
         <v>480308</v>
@@ -2646,7 +2646,7 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59">
         <v>480308</v>
@@ -2675,7 +2675,7 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60">
         <v>480308</v>
@@ -2704,7 +2704,7 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61">
         <v>480308</v>
@@ -2733,7 +2733,7 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>480308</v>
@@ -2762,7 +2762,7 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63">
         <v>480308</v>
@@ -2791,7 +2791,7 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64">
         <v>480308</v>
@@ -2820,7 +2820,7 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65">
         <v>480308</v>
@@ -2849,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66">
         <v>480308</v>
@@ -2878,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67">
         <v>480308</v>
@@ -2907,7 +2907,7 @@
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68">
         <v>480308</v>
@@ -2936,7 +2936,7 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69">
         <v>637013</v>
@@ -2965,7 +2965,7 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70">
         <v>637013</v>
@@ -2994,7 +2994,7 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71">
         <v>637013</v>
@@ -3023,7 +3023,7 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D72">
         <v>637013</v>
@@ -3052,7 +3052,7 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73">
         <v>637013</v>
@@ -3081,7 +3081,7 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74">
         <v>637013</v>
@@ -3110,7 +3110,7 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75">
         <v>637013</v>
@@ -3139,7 +3139,7 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76">
         <v>637013</v>
@@ -3168,7 +3168,7 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77">
         <v>637013</v>
@@ -3197,7 +3197,7 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78">
         <v>637013</v>
@@ -3226,7 +3226,7 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D79">
         <v>637013</v>
@@ -3255,7 +3255,7 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D80">
         <v>637013</v>
@@ -3284,7 +3284,7 @@
         <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81">
         <v>637013</v>
@@ -3313,7 +3313,7 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D82">
         <v>637013</v>
@@ -3342,7 +3342,7 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D83">
         <v>637013</v>
@@ -3371,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D84">
         <v>637013</v>
@@ -3400,7 +3400,7 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D85">
         <v>637013</v>
@@ -3429,7 +3429,7 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D86">
         <v>637013</v>
@@ -3458,7 +3458,7 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D87">
         <v>637013</v>
@@ -3487,7 +3487,7 @@
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D88">
         <v>637013</v>
@@ -3516,7 +3516,7 @@
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D89">
         <v>637013</v>
@@ -3545,7 +3545,7 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D90">
         <v>637013</v>
@@ -3574,7 +3574,7 @@
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91">
         <v>637013</v>
@@ -3603,7 +3603,7 @@
         <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D92">
         <v>637013</v>
@@ -3632,7 +3632,7 @@
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D93">
         <v>637013</v>
@@ -3661,7 +3661,7 @@
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D94">
         <v>637013</v>
@@ -3690,7 +3690,7 @@
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D95">
         <v>637013</v>
@@ -3719,7 +3719,7 @@
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D96">
         <v>637013</v>
@@ -3748,7 +3748,7 @@
         <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D97">
         <v>637013</v>
@@ -3777,7 +3777,7 @@
         <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D98">
         <v>637013</v>
@@ -3806,7 +3806,7 @@
         <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D99">
         <v>637013</v>
@@ -3835,7 +3835,7 @@
         <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D100">
         <v>637013</v>
@@ -3864,7 +3864,7 @@
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D101">
         <v>637013</v>
@@ -3893,7 +3893,7 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D102">
         <v>637013</v>
@@ -3922,7 +3922,7 @@
         <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D103">
         <v>637013</v>
@@ -3951,7 +3951,7 @@
         <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D104">
         <v>637013</v>
@@ -3980,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D105">
         <v>637013</v>
@@ -4009,7 +4009,7 @@
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D106">
         <v>637013</v>
@@ -4038,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107">
         <v>637013</v>
@@ -4067,7 +4067,7 @@
         <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108">
         <v>637013</v>
@@ -4096,7 +4096,7 @@
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109">
         <v>637013</v>
@@ -4125,7 +4125,7 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110">
         <v>637013</v>
@@ -4154,7 +4154,7 @@
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D111">
         <v>637013</v>
@@ -4183,7 +4183,7 @@
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D112">
         <v>637013</v>
@@ -4212,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D113">
         <v>637013</v>
@@ -4241,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D114">
         <v>637013</v>
@@ -4270,7 +4270,7 @@
         <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D115">
         <v>637013</v>
@@ -4299,7 +4299,7 @@
         <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D116">
         <v>637013</v>
@@ -4328,7 +4328,7 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D117">
         <v>637013</v>
@@ -4357,7 +4357,7 @@
         <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D118">
         <v>637013</v>
@@ -4386,7 +4386,7 @@
         <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D119">
         <v>637013</v>
@@ -4415,7 +4415,7 @@
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D120">
         <v>637013</v>
@@ -4444,7 +4444,7 @@
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D121">
         <v>637013</v>
@@ -4473,7 +4473,7 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D122">
         <v>637013</v>
@@ -4502,7 +4502,7 @@
         <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D123">
         <v>637013</v>
@@ -4531,7 +4531,7 @@
         <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D124">
         <v>637013</v>
@@ -4560,7 +4560,7 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D125">
         <v>637013</v>
@@ -4589,7 +4589,7 @@
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D126">
         <v>637013</v>
@@ -4618,7 +4618,7 @@
         <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D127">
         <v>637013</v>
@@ -4647,7 +4647,7 @@
         <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D128">
         <v>637013</v>
@@ -4676,7 +4676,7 @@
         <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D129">
         <v>637013</v>
@@ -4705,7 +4705,7 @@
         <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D130">
         <v>637013</v>
@@ -4734,7 +4734,7 @@
         <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D131">
         <v>637013</v>
@@ -4763,7 +4763,7 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D132">
         <v>637013</v>
@@ -4792,7 +4792,7 @@
         <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D133">
         <v>637013</v>
@@ -4821,7 +4821,7 @@
         <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D134">
         <v>637013</v>
@@ -4850,7 +4850,7 @@
         <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D135">
         <v>637013</v>
@@ -4879,7 +4879,7 @@
         <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D136">
         <v>2028639</v>
@@ -4908,7 +4908,7 @@
         <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D137">
         <v>2028639</v>
@@ -4937,7 +4937,7 @@
         <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D138">
         <v>2028639</v>
@@ -4966,7 +4966,7 @@
         <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D139">
         <v>2028639</v>
@@ -4995,7 +4995,7 @@
         <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D140">
         <v>2028639</v>
@@ -5024,7 +5024,7 @@
         <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D141">
         <v>2028639</v>
@@ -5053,7 +5053,7 @@
         <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D142">
         <v>2028639</v>
@@ -5082,7 +5082,7 @@
         <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D143">
         <v>2028639</v>
@@ -5111,7 +5111,7 @@
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D144">
         <v>2028639</v>
@@ -5140,7 +5140,7 @@
         <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D145">
         <v>2028639</v>
@@ -5169,7 +5169,7 @@
         <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D146">
         <v>2028639</v>
@@ -5198,7 +5198,7 @@
         <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D147">
         <v>2028639</v>
@@ -5227,7 +5227,7 @@
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D148">
         <v>2028639</v>
@@ -5256,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D149">
         <v>2028639</v>
@@ -5285,7 +5285,7 @@
         <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D150">
         <v>2028639</v>
@@ -5314,7 +5314,7 @@
         <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D151">
         <v>2028639</v>
@@ -5343,7 +5343,7 @@
         <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D152">
         <v>2028639</v>
@@ -5372,7 +5372,7 @@
         <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D153">
         <v>2028639</v>
@@ -5401,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D154">
         <v>2028639</v>
@@ -5430,7 +5430,7 @@
         <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D155">
         <v>2028639</v>
@@ -5459,7 +5459,7 @@
         <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D156">
         <v>2028639</v>
@@ -5488,7 +5488,7 @@
         <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D157">
         <v>2028639</v>
@@ -5517,7 +5517,7 @@
         <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D158">
         <v>2028639</v>
@@ -5546,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D159">
         <v>2028639</v>
@@ -5575,7 +5575,7 @@
         <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D160">
         <v>2028639</v>
@@ -5604,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D161">
         <v>2028639</v>
@@ -5633,7 +5633,7 @@
         <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D162">
         <v>2028639</v>
@@ -5662,7 +5662,7 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D163">
         <v>2028639</v>
@@ -5691,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D164">
         <v>2028639</v>
@@ -5720,7 +5720,7 @@
         <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D165">
         <v>2028639</v>
@@ -5749,7 +5749,7 @@
         <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D166">
         <v>2028639</v>
@@ -5778,7 +5778,7 @@
         <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D167">
         <v>2028639</v>
@@ -5807,7 +5807,7 @@
         <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D168">
         <v>2028639</v>
@@ -5836,7 +5836,7 @@
         <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D169">
         <v>2028639</v>
@@ -5865,7 +5865,7 @@
         <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D170">
         <v>2028639</v>
@@ -5894,7 +5894,7 @@
         <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D171">
         <v>2028639</v>
@@ -5923,7 +5923,7 @@
         <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D172">
         <v>2028639</v>
@@ -5952,7 +5952,7 @@
         <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D173">
         <v>2028639</v>
@@ -5981,7 +5981,7 @@
         <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D174">
         <v>2028639</v>
@@ -6010,7 +6010,7 @@
         <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D175">
         <v>2028639</v>
@@ -6039,7 +6039,7 @@
         <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D176">
         <v>2028639</v>
@@ -6068,7 +6068,7 @@
         <v>12</v>
       </c>
       <c r="C177" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D177">
         <v>2028639</v>
@@ -6097,7 +6097,7 @@
         <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D178">
         <v>2028639</v>
@@ -6126,7 +6126,7 @@
         <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D179">
         <v>2028639</v>
@@ -6155,7 +6155,7 @@
         <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D180">
         <v>2028639</v>
@@ -6184,7 +6184,7 @@
         <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D181">
         <v>2028639</v>
@@ -6213,7 +6213,7 @@
         <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D182">
         <v>2028639</v>
@@ -6242,7 +6242,7 @@
         <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D183">
         <v>2028639</v>
@@ -6271,7 +6271,7 @@
         <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D184">
         <v>2028639</v>
@@ -6300,7 +6300,7 @@
         <v>12</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D185">
         <v>2028639</v>
@@ -6329,7 +6329,7 @@
         <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D186">
         <v>2028639</v>
@@ -6358,7 +6358,7 @@
         <v>12</v>
       </c>
       <c r="C187" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D187">
         <v>2028639</v>
@@ -6387,7 +6387,7 @@
         <v>12</v>
       </c>
       <c r="C188" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D188">
         <v>2028639</v>
@@ -6416,7 +6416,7 @@
         <v>12</v>
       </c>
       <c r="C189" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D189">
         <v>2028639</v>
@@ -6445,7 +6445,7 @@
         <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D190">
         <v>2028639</v>
@@ -6474,7 +6474,7 @@
         <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D191">
         <v>2028639</v>
@@ -6503,7 +6503,7 @@
         <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D192">
         <v>2028639</v>
@@ -6532,7 +6532,7 @@
         <v>12</v>
       </c>
       <c r="C193" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D193">
         <v>2028639</v>
@@ -6561,7 +6561,7 @@
         <v>12</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D194">
         <v>2028639</v>
@@ -6590,7 +6590,7 @@
         <v>12</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D195">
         <v>2028639</v>
@@ -6619,7 +6619,7 @@
         <v>12</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D196">
         <v>2028639</v>
@@ -6648,7 +6648,7 @@
         <v>12</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D197">
         <v>2028639</v>
@@ -6677,7 +6677,7 @@
         <v>12</v>
       </c>
       <c r="C198" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D198">
         <v>2028639</v>
@@ -6706,7 +6706,7 @@
         <v>12</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D199">
         <v>2028639</v>
@@ -6735,7 +6735,7 @@
         <v>12</v>
       </c>
       <c r="C200" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D200">
         <v>2028639</v>
@@ -6764,7 +6764,7 @@
         <v>12</v>
       </c>
       <c r="C201" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D201">
         <v>2028639</v>
@@ -6793,7 +6793,7 @@
         <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D202">
         <v>2028639</v>
@@ -6822,7 +6822,7 @@
         <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D203">
         <v>2926996</v>
@@ -6851,7 +6851,7 @@
         <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D204">
         <v>2926996</v>
@@ -6880,7 +6880,7 @@
         <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D205">
         <v>2926996</v>
@@ -6909,7 +6909,7 @@
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D206">
         <v>2926996</v>
@@ -6938,7 +6938,7 @@
         <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D207">
         <v>2926996</v>
@@ -6967,7 +6967,7 @@
         <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D208">
         <v>2926996</v>
@@ -6996,7 +6996,7 @@
         <v>13</v>
       </c>
       <c r="C209" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D209">
         <v>2926996</v>
@@ -7025,7 +7025,7 @@
         <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D210">
         <v>2926996</v>
@@ -7054,7 +7054,7 @@
         <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D211">
         <v>2926996</v>
@@ -7083,7 +7083,7 @@
         <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D212">
         <v>2926996</v>
@@ -7112,7 +7112,7 @@
         <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D213">
         <v>2926996</v>
@@ -7141,7 +7141,7 @@
         <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D214">
         <v>2926996</v>
@@ -7170,7 +7170,7 @@
         <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D215">
         <v>2926996</v>
@@ -7199,7 +7199,7 @@
         <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D216">
         <v>2926996</v>
@@ -7228,7 +7228,7 @@
         <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D217">
         <v>2926996</v>
@@ -7257,7 +7257,7 @@
         <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D218">
         <v>2926996</v>
@@ -7286,7 +7286,7 @@
         <v>13</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D219">
         <v>2926996</v>
@@ -7315,7 +7315,7 @@
         <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D220">
         <v>2926996</v>
@@ -7344,7 +7344,7 @@
         <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D221">
         <v>2926996</v>
@@ -7373,7 +7373,7 @@
         <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D222">
         <v>2926996</v>
@@ -7402,7 +7402,7 @@
         <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D223">
         <v>2926996</v>
@@ -7431,7 +7431,7 @@
         <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D224">
         <v>2926996</v>
@@ -7460,7 +7460,7 @@
         <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D225">
         <v>2926996</v>
@@ -7489,7 +7489,7 @@
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D226">
         <v>2926996</v>
@@ -7518,7 +7518,7 @@
         <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D227">
         <v>2926996</v>
@@ -7547,7 +7547,7 @@
         <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D228">
         <v>2926996</v>
@@ -7576,7 +7576,7 @@
         <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D229">
         <v>2926996</v>
@@ -7605,7 +7605,7 @@
         <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D230">
         <v>2926996</v>
@@ -7634,7 +7634,7 @@
         <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D231">
         <v>2926996</v>
@@ -7663,7 +7663,7 @@
         <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D232">
         <v>2926996</v>
@@ -7692,7 +7692,7 @@
         <v>13</v>
       </c>
       <c r="C233" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D233">
         <v>2926996</v>
@@ -7721,7 +7721,7 @@
         <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D234">
         <v>2926996</v>
@@ -7750,7 +7750,7 @@
         <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D235">
         <v>2926996</v>
@@ -7779,7 +7779,7 @@
         <v>13</v>
       </c>
       <c r="C236" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D236">
         <v>2926996</v>
@@ -7808,7 +7808,7 @@
         <v>13</v>
       </c>
       <c r="C237" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D237">
         <v>2926996</v>
@@ -7837,7 +7837,7 @@
         <v>13</v>
       </c>
       <c r="C238" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D238">
         <v>2926996</v>
@@ -7866,7 +7866,7 @@
         <v>13</v>
       </c>
       <c r="C239" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D239">
         <v>2926996</v>
@@ -7895,7 +7895,7 @@
         <v>13</v>
       </c>
       <c r="C240" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D240">
         <v>2926996</v>
@@ -7924,7 +7924,7 @@
         <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D241">
         <v>2926996</v>
@@ -7953,7 +7953,7 @@
         <v>13</v>
       </c>
       <c r="C242" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D242">
         <v>2926996</v>
@@ -7982,7 +7982,7 @@
         <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D243">
         <v>2926996</v>
@@ -8011,7 +8011,7 @@
         <v>13</v>
       </c>
       <c r="C244" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D244">
         <v>2926996</v>
@@ -8040,7 +8040,7 @@
         <v>13</v>
       </c>
       <c r="C245" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D245">
         <v>2926996</v>
@@ -8069,7 +8069,7 @@
         <v>13</v>
       </c>
       <c r="C246" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D246">
         <v>2926996</v>
@@ -8098,7 +8098,7 @@
         <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D247">
         <v>2926996</v>
@@ -8127,7 +8127,7 @@
         <v>13</v>
       </c>
       <c r="C248" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D248">
         <v>2926996</v>
@@ -8156,7 +8156,7 @@
         <v>13</v>
       </c>
       <c r="C249" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D249">
         <v>2926996</v>
@@ -8185,7 +8185,7 @@
         <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D250">
         <v>2926996</v>
@@ -8214,7 +8214,7 @@
         <v>13</v>
       </c>
       <c r="C251" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D251">
         <v>2926996</v>
@@ -8243,7 +8243,7 @@
         <v>13</v>
       </c>
       <c r="C252" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D252">
         <v>2926996</v>
@@ -8272,7 +8272,7 @@
         <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D253">
         <v>2926996</v>
@@ -8301,7 +8301,7 @@
         <v>13</v>
       </c>
       <c r="C254" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D254">
         <v>2926996</v>
@@ -8330,7 +8330,7 @@
         <v>13</v>
       </c>
       <c r="C255" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D255">
         <v>2926996</v>
@@ -8359,7 +8359,7 @@
         <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D256">
         <v>2926996</v>
@@ -8388,7 +8388,7 @@
         <v>13</v>
       </c>
       <c r="C257" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D257">
         <v>2926996</v>
@@ -8417,7 +8417,7 @@
         <v>13</v>
       </c>
       <c r="C258" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D258">
         <v>2926996</v>
@@ -8446,7 +8446,7 @@
         <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D259">
         <v>2926996</v>
@@ -8475,7 +8475,7 @@
         <v>13</v>
       </c>
       <c r="C260" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D260">
         <v>2926996</v>
@@ -8504,7 +8504,7 @@
         <v>13</v>
       </c>
       <c r="C261" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D261">
         <v>2926996</v>
@@ -8533,7 +8533,7 @@
         <v>13</v>
       </c>
       <c r="C262" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D262">
         <v>2926996</v>
@@ -8562,7 +8562,7 @@
         <v>13</v>
       </c>
       <c r="C263" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D263">
         <v>2926996</v>
@@ -8591,7 +8591,7 @@
         <v>13</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D264">
         <v>2926996</v>
@@ -8620,7 +8620,7 @@
         <v>13</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D265">
         <v>2926996</v>
@@ -8649,7 +8649,7 @@
         <v>13</v>
       </c>
       <c r="C266" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D266">
         <v>2926996</v>
@@ -8678,7 +8678,7 @@
         <v>13</v>
       </c>
       <c r="C267" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D267">
         <v>2926996</v>
@@ -8707,7 +8707,7 @@
         <v>13</v>
       </c>
       <c r="C268" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D268">
         <v>2926996</v>
@@ -8736,7 +8736,7 @@
         <v>13</v>
       </c>
       <c r="C269" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D269">
         <v>2926996</v>
@@ -8765,7 +8765,7 @@
         <v>14</v>
       </c>
       <c r="C270" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D270">
         <v>551116</v>
@@ -8794,7 +8794,7 @@
         <v>14</v>
       </c>
       <c r="C271" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D271">
         <v>551116</v>
@@ -8823,7 +8823,7 @@
         <v>14</v>
       </c>
       <c r="C272" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D272">
         <v>551116</v>
@@ -8852,7 +8852,7 @@
         <v>14</v>
       </c>
       <c r="C273" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D273">
         <v>551116</v>
@@ -8881,7 +8881,7 @@
         <v>14</v>
       </c>
       <c r="C274" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D274">
         <v>551116</v>
@@ -8910,7 +8910,7 @@
         <v>14</v>
       </c>
       <c r="C275" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D275">
         <v>551116</v>
@@ -8939,7 +8939,7 @@
         <v>14</v>
       </c>
       <c r="C276" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D276">
         <v>551116</v>
@@ -8968,7 +8968,7 @@
         <v>14</v>
       </c>
       <c r="C277" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D277">
         <v>551116</v>
@@ -8997,7 +8997,7 @@
         <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D278">
         <v>551116</v>
@@ -9026,7 +9026,7 @@
         <v>14</v>
       </c>
       <c r="C279" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D279">
         <v>551116</v>
@@ -9055,7 +9055,7 @@
         <v>14</v>
       </c>
       <c r="C280" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D280">
         <v>551116</v>
@@ -9084,7 +9084,7 @@
         <v>14</v>
       </c>
       <c r="C281" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D281">
         <v>551116</v>
@@ -9113,7 +9113,7 @@
         <v>14</v>
       </c>
       <c r="C282" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D282">
         <v>551116</v>
@@ -9142,7 +9142,7 @@
         <v>14</v>
       </c>
       <c r="C283" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D283">
         <v>551116</v>
@@ -9171,7 +9171,7 @@
         <v>14</v>
       </c>
       <c r="C284" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D284">
         <v>551116</v>
@@ -9200,7 +9200,7 @@
         <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D285">
         <v>551116</v>
@@ -9229,7 +9229,7 @@
         <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D286">
         <v>551116</v>
@@ -9258,7 +9258,7 @@
         <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D287">
         <v>551116</v>
@@ -9287,7 +9287,7 @@
         <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D288">
         <v>551116</v>
@@ -9316,7 +9316,7 @@
         <v>14</v>
       </c>
       <c r="C289" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D289">
         <v>551116</v>
@@ -9345,7 +9345,7 @@
         <v>14</v>
       </c>
       <c r="C290" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D290">
         <v>551116</v>
@@ -9374,7 +9374,7 @@
         <v>14</v>
       </c>
       <c r="C291" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D291">
         <v>551116</v>
@@ -9403,7 +9403,7 @@
         <v>14</v>
       </c>
       <c r="C292" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D292">
         <v>551116</v>
@@ -9432,7 +9432,7 @@
         <v>14</v>
       </c>
       <c r="C293" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D293">
         <v>551116</v>
@@ -9461,7 +9461,7 @@
         <v>14</v>
       </c>
       <c r="C294" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D294">
         <v>551116</v>
@@ -9490,7 +9490,7 @@
         <v>14</v>
       </c>
       <c r="C295" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D295">
         <v>551116</v>
@@ -9519,7 +9519,7 @@
         <v>14</v>
       </c>
       <c r="C296" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D296">
         <v>551116</v>
@@ -9548,7 +9548,7 @@
         <v>14</v>
       </c>
       <c r="C297" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D297">
         <v>551116</v>
@@ -9577,7 +9577,7 @@
         <v>14</v>
       </c>
       <c r="C298" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D298">
         <v>551116</v>
@@ -9606,7 +9606,7 @@
         <v>14</v>
       </c>
       <c r="C299" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D299">
         <v>551116</v>
@@ -9635,7 +9635,7 @@
         <v>14</v>
       </c>
       <c r="C300" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D300">
         <v>551116</v>
@@ -9664,7 +9664,7 @@
         <v>14</v>
       </c>
       <c r="C301" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D301">
         <v>551116</v>
@@ -9693,7 +9693,7 @@
         <v>14</v>
       </c>
       <c r="C302" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D302">
         <v>551116</v>
@@ -9722,7 +9722,7 @@
         <v>14</v>
       </c>
       <c r="C303" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D303">
         <v>551116</v>
@@ -9751,7 +9751,7 @@
         <v>14</v>
       </c>
       <c r="C304" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D304">
         <v>551116</v>
@@ -9780,7 +9780,7 @@
         <v>14</v>
       </c>
       <c r="C305" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D305">
         <v>551116</v>
@@ -9809,7 +9809,7 @@
         <v>14</v>
       </c>
       <c r="C306" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D306">
         <v>551116</v>
@@ -9838,7 +9838,7 @@
         <v>14</v>
       </c>
       <c r="C307" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D307">
         <v>551116</v>
@@ -9867,7 +9867,7 @@
         <v>14</v>
       </c>
       <c r="C308" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D308">
         <v>551116</v>
@@ -9896,7 +9896,7 @@
         <v>14</v>
       </c>
       <c r="C309" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D309">
         <v>551116</v>
@@ -9925,7 +9925,7 @@
         <v>14</v>
       </c>
       <c r="C310" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D310">
         <v>551116</v>
@@ -9954,7 +9954,7 @@
         <v>14</v>
       </c>
       <c r="C311" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D311">
         <v>551116</v>
@@ -9983,7 +9983,7 @@
         <v>14</v>
       </c>
       <c r="C312" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D312">
         <v>551116</v>
@@ -10012,7 +10012,7 @@
         <v>14</v>
       </c>
       <c r="C313" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D313">
         <v>551116</v>
@@ -10041,7 +10041,7 @@
         <v>14</v>
       </c>
       <c r="C314" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D314">
         <v>551116</v>
@@ -10070,7 +10070,7 @@
         <v>14</v>
       </c>
       <c r="C315" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D315">
         <v>551116</v>
@@ -10099,7 +10099,7 @@
         <v>14</v>
       </c>
       <c r="C316" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D316">
         <v>551116</v>
@@ -10128,7 +10128,7 @@
         <v>14</v>
       </c>
       <c r="C317" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D317">
         <v>551116</v>
@@ -10157,7 +10157,7 @@
         <v>14</v>
       </c>
       <c r="C318" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D318">
         <v>551116</v>
@@ -10186,7 +10186,7 @@
         <v>14</v>
       </c>
       <c r="C319" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D319">
         <v>551116</v>
@@ -10215,7 +10215,7 @@
         <v>14</v>
       </c>
       <c r="C320" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D320">
         <v>551116</v>
@@ -10244,7 +10244,7 @@
         <v>14</v>
       </c>
       <c r="C321" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D321">
         <v>551116</v>
@@ -10273,7 +10273,7 @@
         <v>14</v>
       </c>
       <c r="C322" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D322">
         <v>551116</v>
@@ -10302,7 +10302,7 @@
         <v>14</v>
       </c>
       <c r="C323" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D323">
         <v>551116</v>
@@ -10331,7 +10331,7 @@
         <v>14</v>
       </c>
       <c r="C324" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D324">
         <v>551116</v>
@@ -10360,7 +10360,7 @@
         <v>14</v>
       </c>
       <c r="C325" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D325">
         <v>551116</v>
@@ -10389,7 +10389,7 @@
         <v>14</v>
       </c>
       <c r="C326" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D326">
         <v>551116</v>
@@ -10418,7 +10418,7 @@
         <v>14</v>
       </c>
       <c r="C327" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D327">
         <v>551116</v>
@@ -10447,7 +10447,7 @@
         <v>14</v>
       </c>
       <c r="C328" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D328">
         <v>551116</v>
@@ -10476,7 +10476,7 @@
         <v>14</v>
       </c>
       <c r="C329" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D329">
         <v>551116</v>
@@ -10505,7 +10505,7 @@
         <v>14</v>
       </c>
       <c r="C330" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D330">
         <v>551116</v>
@@ -10534,7 +10534,7 @@
         <v>14</v>
       </c>
       <c r="C331" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D331">
         <v>551116</v>
@@ -10563,7 +10563,7 @@
         <v>14</v>
       </c>
       <c r="C332" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D332">
         <v>551116</v>
@@ -10592,7 +10592,7 @@
         <v>14</v>
       </c>
       <c r="C333" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D333">
         <v>551116</v>
@@ -10621,7 +10621,7 @@
         <v>14</v>
       </c>
       <c r="C334" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D334">
         <v>551116</v>
@@ -10650,7 +10650,7 @@
         <v>14</v>
       </c>
       <c r="C335" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D335">
         <v>551116</v>
@@ -10679,7 +10679,7 @@
         <v>14</v>
       </c>
       <c r="C336" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D336">
         <v>551116</v>
@@ -10708,7 +10708,7 @@
         <v>15</v>
       </c>
       <c r="C337" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D337">
         <v>154355</v>
@@ -10737,7 +10737,7 @@
         <v>15</v>
       </c>
       <c r="C338" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D338">
         <v>154355</v>
@@ -10766,7 +10766,7 @@
         <v>15</v>
       </c>
       <c r="C339" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D339">
         <v>154355</v>
@@ -10795,7 +10795,7 @@
         <v>15</v>
       </c>
       <c r="C340" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D340">
         <v>154355</v>
@@ -10824,7 +10824,7 @@
         <v>15</v>
       </c>
       <c r="C341" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D341">
         <v>154355</v>
@@ -10853,7 +10853,7 @@
         <v>15</v>
       </c>
       <c r="C342" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D342">
         <v>154355</v>
@@ -10882,7 +10882,7 @@
         <v>15</v>
       </c>
       <c r="C343" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D343">
         <v>154355</v>
@@ -10911,7 +10911,7 @@
         <v>15</v>
       </c>
       <c r="C344" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D344">
         <v>154355</v>
@@ -10940,7 +10940,7 @@
         <v>15</v>
       </c>
       <c r="C345" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D345">
         <v>154355</v>
@@ -10969,7 +10969,7 @@
         <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D346">
         <v>154355</v>
@@ -10998,7 +10998,7 @@
         <v>15</v>
       </c>
       <c r="C347" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D347">
         <v>154355</v>
@@ -11027,7 +11027,7 @@
         <v>15</v>
       </c>
       <c r="C348" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D348">
         <v>154355</v>
@@ -11056,7 +11056,7 @@
         <v>15</v>
       </c>
       <c r="C349" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D349">
         <v>154355</v>
@@ -11085,7 +11085,7 @@
         <v>15</v>
       </c>
       <c r="C350" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D350">
         <v>154355</v>
@@ -11114,7 +11114,7 @@
         <v>15</v>
       </c>
       <c r="C351" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D351">
         <v>154355</v>
@@ -11143,7 +11143,7 @@
         <v>15</v>
       </c>
       <c r="C352" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D352">
         <v>154355</v>
@@ -11172,7 +11172,7 @@
         <v>15</v>
       </c>
       <c r="C353" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D353">
         <v>154355</v>
@@ -11201,7 +11201,7 @@
         <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D354">
         <v>154355</v>
@@ -11230,7 +11230,7 @@
         <v>15</v>
       </c>
       <c r="C355" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D355">
         <v>154355</v>
@@ -11259,7 +11259,7 @@
         <v>15</v>
       </c>
       <c r="C356" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D356">
         <v>154355</v>
@@ -11288,7 +11288,7 @@
         <v>15</v>
       </c>
       <c r="C357" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D357">
         <v>154355</v>
@@ -11317,7 +11317,7 @@
         <v>15</v>
       </c>
       <c r="C358" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D358">
         <v>154355</v>
@@ -11346,7 +11346,7 @@
         <v>15</v>
       </c>
       <c r="C359" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D359">
         <v>154355</v>
@@ -11375,7 +11375,7 @@
         <v>15</v>
       </c>
       <c r="C360" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D360">
         <v>154355</v>
@@ -11404,7 +11404,7 @@
         <v>15</v>
       </c>
       <c r="C361" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D361">
         <v>154355</v>
@@ -11433,7 +11433,7 @@
         <v>15</v>
       </c>
       <c r="C362" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D362">
         <v>154355</v>
@@ -11462,7 +11462,7 @@
         <v>15</v>
       </c>
       <c r="C363" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D363">
         <v>154355</v>
@@ -11491,7 +11491,7 @@
         <v>15</v>
       </c>
       <c r="C364" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D364">
         <v>154355</v>
@@ -11520,7 +11520,7 @@
         <v>15</v>
       </c>
       <c r="C365" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D365">
         <v>154355</v>
@@ -11549,7 +11549,7 @@
         <v>15</v>
       </c>
       <c r="C366" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D366">
         <v>154355</v>
@@ -11578,7 +11578,7 @@
         <v>15</v>
       </c>
       <c r="C367" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D367">
         <v>154355</v>
@@ -11607,7 +11607,7 @@
         <v>15</v>
       </c>
       <c r="C368" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D368">
         <v>154355</v>
@@ -11636,7 +11636,7 @@
         <v>15</v>
       </c>
       <c r="C369" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D369">
         <v>154355</v>
@@ -11665,7 +11665,7 @@
         <v>15</v>
       </c>
       <c r="C370" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D370">
         <v>154355</v>
@@ -11694,7 +11694,7 @@
         <v>15</v>
       </c>
       <c r="C371" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D371">
         <v>154355</v>
@@ -11723,7 +11723,7 @@
         <v>15</v>
       </c>
       <c r="C372" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D372">
         <v>154355</v>
@@ -11752,7 +11752,7 @@
         <v>15</v>
       </c>
       <c r="C373" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D373">
         <v>154355</v>
@@ -11781,7 +11781,7 @@
         <v>15</v>
       </c>
       <c r="C374" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D374">
         <v>154355</v>
@@ -11810,7 +11810,7 @@
         <v>15</v>
       </c>
       <c r="C375" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D375">
         <v>154355</v>
@@ -11839,7 +11839,7 @@
         <v>15</v>
       </c>
       <c r="C376" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D376">
         <v>154355</v>
@@ -11868,7 +11868,7 @@
         <v>15</v>
       </c>
       <c r="C377" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D377">
         <v>154355</v>
@@ -11897,7 +11897,7 @@
         <v>15</v>
       </c>
       <c r="C378" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D378">
         <v>154355</v>
@@ -11926,7 +11926,7 @@
         <v>15</v>
       </c>
       <c r="C379" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D379">
         <v>154355</v>
@@ -11955,7 +11955,7 @@
         <v>15</v>
       </c>
       <c r="C380" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D380">
         <v>154355</v>
@@ -11984,7 +11984,7 @@
         <v>15</v>
       </c>
       <c r="C381" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D381">
         <v>154355</v>
@@ -12013,7 +12013,7 @@
         <v>15</v>
       </c>
       <c r="C382" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D382">
         <v>154355</v>
@@ -12042,7 +12042,7 @@
         <v>15</v>
       </c>
       <c r="C383" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D383">
         <v>154355</v>
@@ -12071,7 +12071,7 @@
         <v>15</v>
       </c>
       <c r="C384" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D384">
         <v>154355</v>
@@ -12100,7 +12100,7 @@
         <v>15</v>
       </c>
       <c r="C385" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D385">
         <v>154355</v>
@@ -12129,7 +12129,7 @@
         <v>15</v>
       </c>
       <c r="C386" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D386">
         <v>154355</v>
@@ -12158,7 +12158,7 @@
         <v>15</v>
       </c>
       <c r="C387" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D387">
         <v>154355</v>
@@ -12187,7 +12187,7 @@
         <v>15</v>
       </c>
       <c r="C388" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D388">
         <v>154355</v>
@@ -12216,7 +12216,7 @@
         <v>15</v>
       </c>
       <c r="C389" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D389">
         <v>154355</v>
@@ -12245,7 +12245,7 @@
         <v>15</v>
       </c>
       <c r="C390" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D390">
         <v>154355</v>
@@ -12274,7 +12274,7 @@
         <v>15</v>
       </c>
       <c r="C391" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D391">
         <v>154355</v>
@@ -12303,7 +12303,7 @@
         <v>15</v>
       </c>
       <c r="C392" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D392">
         <v>154355</v>
@@ -12332,7 +12332,7 @@
         <v>15</v>
       </c>
       <c r="C393" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D393">
         <v>154355</v>
@@ -12361,7 +12361,7 @@
         <v>15</v>
       </c>
       <c r="C394" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D394">
         <v>154355</v>
@@ -12390,7 +12390,7 @@
         <v>15</v>
       </c>
       <c r="C395" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D395">
         <v>154355</v>
@@ -12419,7 +12419,7 @@
         <v>15</v>
       </c>
       <c r="C396" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D396">
         <v>154355</v>
@@ -12448,7 +12448,7 @@
         <v>15</v>
       </c>
       <c r="C397" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D397">
         <v>154355</v>
@@ -12477,7 +12477,7 @@
         <v>15</v>
       </c>
       <c r="C398" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D398">
         <v>154355</v>
@@ -12506,7 +12506,7 @@
         <v>15</v>
       </c>
       <c r="C399" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D399">
         <v>154355</v>
@@ -12535,7 +12535,7 @@
         <v>15</v>
       </c>
       <c r="C400" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D400">
         <v>154355</v>
@@ -12564,7 +12564,7 @@
         <v>15</v>
       </c>
       <c r="C401" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D401">
         <v>154355</v>
@@ -12593,7 +12593,7 @@
         <v>15</v>
       </c>
       <c r="C402" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D402">
         <v>154355</v>
@@ -12622,7 +12622,7 @@
         <v>15</v>
       </c>
       <c r="C403" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D403">
         <v>154355</v>
@@ -12648,10 +12648,10 @@
         <v>9</v>
       </c>
       <c r="B404" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C404" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D404">
         <v>901555</v>
@@ -12677,10 +12677,10 @@
         <v>9</v>
       </c>
       <c r="B405" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C405" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D405">
         <v>901555</v>
@@ -12706,10 +12706,10 @@
         <v>9</v>
       </c>
       <c r="B406" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C406" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D406">
         <v>901555</v>
@@ -12735,10 +12735,10 @@
         <v>9</v>
       </c>
       <c r="B407" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C407" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D407">
         <v>901555</v>
@@ -12764,10 +12764,10 @@
         <v>9</v>
       </c>
       <c r="B408" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C408" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D408">
         <v>901555</v>
@@ -12793,10 +12793,10 @@
         <v>9</v>
       </c>
       <c r="B409" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C409" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D409">
         <v>901555</v>
@@ -12822,10 +12822,10 @@
         <v>9</v>
       </c>
       <c r="B410" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C410" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D410">
         <v>901555</v>
@@ -12851,10 +12851,10 @@
         <v>9</v>
       </c>
       <c r="B411" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C411" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D411">
         <v>901555</v>
@@ -12880,10 +12880,10 @@
         <v>9</v>
       </c>
       <c r="B412" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C412" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D412">
         <v>901555</v>
@@ -12909,10 +12909,10 @@
         <v>9</v>
       </c>
       <c r="B413" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C413" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D413">
         <v>901555</v>
@@ -12938,10 +12938,10 @@
         <v>9</v>
       </c>
       <c r="B414" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C414" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D414">
         <v>901555</v>
@@ -12967,10 +12967,10 @@
         <v>9</v>
       </c>
       <c r="B415" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C415" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D415">
         <v>901555</v>
@@ -12996,10 +12996,10 @@
         <v>9</v>
       </c>
       <c r="B416" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C416" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D416">
         <v>901555</v>
@@ -13025,10 +13025,10 @@
         <v>9</v>
       </c>
       <c r="B417" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C417" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D417">
         <v>901555</v>
@@ -13054,10 +13054,10 @@
         <v>9</v>
       </c>
       <c r="B418" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C418" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D418">
         <v>901555</v>
@@ -13083,10 +13083,10 @@
         <v>9</v>
       </c>
       <c r="B419" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C419" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D419">
         <v>901555</v>
@@ -13112,10 +13112,10 @@
         <v>9</v>
       </c>
       <c r="B420" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C420" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D420">
         <v>901555</v>
@@ -13141,10 +13141,10 @@
         <v>9</v>
       </c>
       <c r="B421" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C421" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D421">
         <v>901555</v>
@@ -13170,10 +13170,10 @@
         <v>9</v>
       </c>
       <c r="B422" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C422" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D422">
         <v>901555</v>
@@ -13199,10 +13199,10 @@
         <v>9</v>
       </c>
       <c r="B423" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C423" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D423">
         <v>901555</v>
@@ -13228,10 +13228,10 @@
         <v>9</v>
       </c>
       <c r="B424" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C424" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D424">
         <v>901555</v>
@@ -13257,10 +13257,10 @@
         <v>9</v>
       </c>
       <c r="B425" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C425" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D425">
         <v>901555</v>
@@ -13286,10 +13286,10 @@
         <v>9</v>
       </c>
       <c r="B426" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C426" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D426">
         <v>901555</v>
@@ -13315,10 +13315,10 @@
         <v>9</v>
       </c>
       <c r="B427" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C427" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D427">
         <v>901555</v>
@@ -13344,10 +13344,10 @@
         <v>9</v>
       </c>
       <c r="B428" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C428" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D428">
         <v>901555</v>
@@ -13373,10 +13373,10 @@
         <v>9</v>
       </c>
       <c r="B429" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C429" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D429">
         <v>901555</v>
@@ -13402,10 +13402,10 @@
         <v>9</v>
       </c>
       <c r="B430" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C430" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D430">
         <v>901555</v>
@@ -13431,10 +13431,10 @@
         <v>9</v>
       </c>
       <c r="B431" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C431" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D431">
         <v>901555</v>
@@ -13460,10 +13460,10 @@
         <v>9</v>
       </c>
       <c r="B432" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C432" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D432">
         <v>901555</v>
@@ -13489,10 +13489,10 @@
         <v>9</v>
       </c>
       <c r="B433" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C433" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D433">
         <v>901555</v>
@@ -13518,10 +13518,10 @@
         <v>9</v>
       </c>
       <c r="B434" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C434" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D434">
         <v>901555</v>
@@ -13547,10 +13547,10 @@
         <v>9</v>
       </c>
       <c r="B435" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C435" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D435">
         <v>901555</v>
@@ -13576,10 +13576,10 @@
         <v>9</v>
       </c>
       <c r="B436" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C436" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D436">
         <v>901555</v>
@@ -13605,10 +13605,10 @@
         <v>9</v>
       </c>
       <c r="B437" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C437" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D437">
         <v>901555</v>
@@ -13634,10 +13634,10 @@
         <v>9</v>
       </c>
       <c r="B438" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C438" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D438">
         <v>901555</v>
@@ -13663,10 +13663,10 @@
         <v>9</v>
       </c>
       <c r="B439" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C439" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D439">
         <v>901555</v>
@@ -13692,10 +13692,10 @@
         <v>9</v>
       </c>
       <c r="B440" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C440" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D440">
         <v>901555</v>
@@ -13721,10 +13721,10 @@
         <v>9</v>
       </c>
       <c r="B441" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C441" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D441">
         <v>901555</v>
@@ -13750,10 +13750,10 @@
         <v>9</v>
       </c>
       <c r="B442" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C442" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D442">
         <v>901555</v>
@@ -13779,10 +13779,10 @@
         <v>9</v>
       </c>
       <c r="B443" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C443" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D443">
         <v>901555</v>
@@ -13808,10 +13808,10 @@
         <v>9</v>
       </c>
       <c r="B444" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C444" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D444">
         <v>901555</v>
@@ -13837,10 +13837,10 @@
         <v>9</v>
       </c>
       <c r="B445" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C445" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D445">
         <v>901555</v>
@@ -13866,10 +13866,10 @@
         <v>9</v>
       </c>
       <c r="B446" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C446" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D446">
         <v>901555</v>
@@ -13895,10 +13895,10 @@
         <v>9</v>
       </c>
       <c r="B447" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C447" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D447">
         <v>901555</v>
@@ -13924,10 +13924,10 @@
         <v>9</v>
       </c>
       <c r="B448" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C448" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D448">
         <v>901555</v>
@@ -13953,10 +13953,10 @@
         <v>9</v>
       </c>
       <c r="B449" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C449" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D449">
         <v>901555</v>
@@ -13982,10 +13982,10 @@
         <v>9</v>
       </c>
       <c r="B450" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C450" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D450">
         <v>901555</v>
@@ -14011,10 +14011,10 @@
         <v>9</v>
       </c>
       <c r="B451" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C451" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D451">
         <v>901555</v>
@@ -14040,10 +14040,10 @@
         <v>9</v>
       </c>
       <c r="B452" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C452" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D452">
         <v>901555</v>
@@ -14069,10 +14069,10 @@
         <v>9</v>
       </c>
       <c r="B453" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C453" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D453">
         <v>901555</v>
@@ -14098,10 +14098,10 @@
         <v>9</v>
       </c>
       <c r="B454" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C454" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D454">
         <v>901555</v>
@@ -14127,10 +14127,10 @@
         <v>9</v>
       </c>
       <c r="B455" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C455" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D455">
         <v>901555</v>
@@ -14156,10 +14156,10 @@
         <v>9</v>
       </c>
       <c r="B456" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C456" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D456">
         <v>901555</v>
@@ -14185,10 +14185,10 @@
         <v>9</v>
       </c>
       <c r="B457" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C457" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D457">
         <v>901555</v>
@@ -14214,10 +14214,10 @@
         <v>9</v>
       </c>
       <c r="B458" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C458" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D458">
         <v>901555</v>
@@ -14243,10 +14243,10 @@
         <v>9</v>
       </c>
       <c r="B459" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C459" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D459">
         <v>901555</v>
@@ -14272,10 +14272,10 @@
         <v>9</v>
       </c>
       <c r="B460" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C460" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D460">
         <v>901555</v>
@@ -14301,10 +14301,10 @@
         <v>9</v>
       </c>
       <c r="B461" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C461" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D461">
         <v>901555</v>
@@ -14330,10 +14330,10 @@
         <v>9</v>
       </c>
       <c r="B462" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C462" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D462">
         <v>901555</v>
@@ -14359,10 +14359,10 @@
         <v>9</v>
       </c>
       <c r="B463" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C463" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D463">
         <v>901555</v>
@@ -14388,10 +14388,10 @@
         <v>9</v>
       </c>
       <c r="B464" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C464" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D464">
         <v>901555</v>
@@ -14417,10 +14417,10 @@
         <v>9</v>
       </c>
       <c r="B465" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C465" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D465">
         <v>901555</v>
@@ -14446,10 +14446,10 @@
         <v>9</v>
       </c>
       <c r="B466" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C466" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D466">
         <v>901555</v>
@@ -14475,10 +14475,10 @@
         <v>9</v>
       </c>
       <c r="B467" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C467" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D467">
         <v>901555</v>
@@ -14504,10 +14504,10 @@
         <v>9</v>
       </c>
       <c r="B468" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C468" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D468">
         <v>901555</v>
@@ -14533,10 +14533,10 @@
         <v>9</v>
       </c>
       <c r="B469" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C469" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D469">
         <v>901555</v>
@@ -14562,10 +14562,10 @@
         <v>9</v>
       </c>
       <c r="B470" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C470" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D470">
         <v>901555</v>
@@ -14591,10 +14591,10 @@
         <v>9</v>
       </c>
       <c r="B471" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C471" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D471">
         <v>3370059</v>
@@ -14620,10 +14620,10 @@
         <v>9</v>
       </c>
       <c r="B472" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C472" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D472">
         <v>3370059</v>
@@ -14649,10 +14649,10 @@
         <v>9</v>
       </c>
       <c r="B473" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C473" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D473">
         <v>3370059</v>
@@ -14678,10 +14678,10 @@
         <v>9</v>
       </c>
       <c r="B474" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C474" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D474">
         <v>3370059</v>
@@ -14707,10 +14707,10 @@
         <v>9</v>
       </c>
       <c r="B475" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C475" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D475">
         <v>3370059</v>
@@ -14736,10 +14736,10 @@
         <v>9</v>
       </c>
       <c r="B476" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C476" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D476">
         <v>3370059</v>
@@ -14765,10 +14765,10 @@
         <v>9</v>
       </c>
       <c r="B477" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C477" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D477">
         <v>3370059</v>
@@ -14794,10 +14794,10 @@
         <v>9</v>
       </c>
       <c r="B478" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C478" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D478">
         <v>3370059</v>
@@ -14823,10 +14823,10 @@
         <v>9</v>
       </c>
       <c r="B479" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C479" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D479">
         <v>3370059</v>
@@ -14852,10 +14852,10 @@
         <v>9</v>
       </c>
       <c r="B480" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C480" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D480">
         <v>3370059</v>
@@ -14881,10 +14881,10 @@
         <v>9</v>
       </c>
       <c r="B481" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C481" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D481">
         <v>3370059</v>
@@ -14910,10 +14910,10 @@
         <v>9</v>
       </c>
       <c r="B482" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C482" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D482">
         <v>3370059</v>
@@ -14939,10 +14939,10 @@
         <v>9</v>
       </c>
       <c r="B483" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C483" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D483">
         <v>3370059</v>
@@ -14968,10 +14968,10 @@
         <v>9</v>
       </c>
       <c r="B484" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C484" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D484">
         <v>3370059</v>
@@ -14997,10 +14997,10 @@
         <v>9</v>
       </c>
       <c r="B485" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C485" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D485">
         <v>3370059</v>
@@ -15026,10 +15026,10 @@
         <v>9</v>
       </c>
       <c r="B486" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C486" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D486">
         <v>3370059</v>
@@ -15055,10 +15055,10 @@
         <v>9</v>
       </c>
       <c r="B487" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C487" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D487">
         <v>3370059</v>
@@ -15084,10 +15084,10 @@
         <v>9</v>
       </c>
       <c r="B488" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C488" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D488">
         <v>3370059</v>
@@ -15113,10 +15113,10 @@
         <v>9</v>
       </c>
       <c r="B489" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C489" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D489">
         <v>3370059</v>
@@ -15142,10 +15142,10 @@
         <v>9</v>
       </c>
       <c r="B490" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C490" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D490">
         <v>3370059</v>
@@ -15171,10 +15171,10 @@
         <v>9</v>
       </c>
       <c r="B491" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C491" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D491">
         <v>3370059</v>
@@ -15200,10 +15200,10 @@
         <v>9</v>
       </c>
       <c r="B492" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C492" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D492">
         <v>3370059</v>
@@ -15229,10 +15229,10 @@
         <v>9</v>
       </c>
       <c r="B493" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C493" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D493">
         <v>3370059</v>
@@ -15258,10 +15258,10 @@
         <v>9</v>
       </c>
       <c r="B494" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C494" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D494">
         <v>3370059</v>
@@ -15287,10 +15287,10 @@
         <v>9</v>
       </c>
       <c r="B495" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C495" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D495">
         <v>3370059</v>
@@ -15316,10 +15316,10 @@
         <v>9</v>
       </c>
       <c r="B496" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C496" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D496">
         <v>3370059</v>
@@ -15345,10 +15345,10 @@
         <v>9</v>
       </c>
       <c r="B497" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C497" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D497">
         <v>3370059</v>
@@ -15374,10 +15374,10 @@
         <v>9</v>
       </c>
       <c r="B498" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C498" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D498">
         <v>3370059</v>
@@ -15403,10 +15403,10 @@
         <v>9</v>
       </c>
       <c r="B499" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C499" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D499">
         <v>3370059</v>
@@ -15432,10 +15432,10 @@
         <v>9</v>
       </c>
       <c r="B500" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C500" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D500">
         <v>3370059</v>
@@ -15461,10 +15461,10 @@
         <v>9</v>
       </c>
       <c r="B501" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C501" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D501">
         <v>3370059</v>
@@ -15490,10 +15490,10 @@
         <v>9</v>
       </c>
       <c r="B502" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C502" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D502">
         <v>3370059</v>
@@ -15519,10 +15519,10 @@
         <v>9</v>
       </c>
       <c r="B503" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C503" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D503">
         <v>3370059</v>
@@ -15548,10 +15548,10 @@
         <v>9</v>
       </c>
       <c r="B504" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C504" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D504">
         <v>3370059</v>
@@ -15577,10 +15577,10 @@
         <v>9</v>
       </c>
       <c r="B505" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C505" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D505">
         <v>3370059</v>
@@ -15606,10 +15606,10 @@
         <v>9</v>
       </c>
       <c r="B506" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C506" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D506">
         <v>3370059</v>
@@ -15635,10 +15635,10 @@
         <v>9</v>
       </c>
       <c r="B507" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C507" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D507">
         <v>3370059</v>
@@ -15664,10 +15664,10 @@
         <v>9</v>
       </c>
       <c r="B508" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C508" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D508">
         <v>3370059</v>
@@ -15693,10 +15693,10 @@
         <v>9</v>
       </c>
       <c r="B509" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C509" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D509">
         <v>3370059</v>
@@ -15722,10 +15722,10 @@
         <v>9</v>
       </c>
       <c r="B510" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C510" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D510">
         <v>3370059</v>
@@ -15751,10 +15751,10 @@
         <v>9</v>
       </c>
       <c r="B511" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C511" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D511">
         <v>3370059</v>
@@ -15780,10 +15780,10 @@
         <v>9</v>
       </c>
       <c r="B512" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C512" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D512">
         <v>3370059</v>
@@ -15809,10 +15809,10 @@
         <v>9</v>
       </c>
       <c r="B513" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C513" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D513">
         <v>3370059</v>
@@ -15838,10 +15838,10 @@
         <v>9</v>
       </c>
       <c r="B514" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C514" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D514">
         <v>3370059</v>
@@ -15867,10 +15867,10 @@
         <v>9</v>
       </c>
       <c r="B515" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C515" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D515">
         <v>3370059</v>
@@ -15896,10 +15896,10 @@
         <v>9</v>
       </c>
       <c r="B516" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C516" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D516">
         <v>3370059</v>
@@ -15925,10 +15925,10 @@
         <v>9</v>
       </c>
       <c r="B517" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C517" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D517">
         <v>3370059</v>
@@ -15954,10 +15954,10 @@
         <v>9</v>
       </c>
       <c r="B518" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C518" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D518">
         <v>3370059</v>
@@ -15983,10 +15983,10 @@
         <v>9</v>
       </c>
       <c r="B519" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C519" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D519">
         <v>3370059</v>
@@ -16012,10 +16012,10 @@
         <v>9</v>
       </c>
       <c r="B520" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C520" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D520">
         <v>3370059</v>
@@ -16041,10 +16041,10 @@
         <v>9</v>
       </c>
       <c r="B521" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C521" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D521">
         <v>3370059</v>
@@ -16070,10 +16070,10 @@
         <v>9</v>
       </c>
       <c r="B522" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C522" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D522">
         <v>3370059</v>
@@ -16099,10 +16099,10 @@
         <v>9</v>
       </c>
       <c r="B523" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C523" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D523">
         <v>3370059</v>
@@ -16128,10 +16128,10 @@
         <v>9</v>
       </c>
       <c r="B524" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C524" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D524">
         <v>3370059</v>
@@ -16157,10 +16157,10 @@
         <v>9</v>
       </c>
       <c r="B525" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C525" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D525">
         <v>3370059</v>
@@ -16186,10 +16186,10 @@
         <v>9</v>
       </c>
       <c r="B526" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C526" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D526">
         <v>3370059</v>
@@ -16215,10 +16215,10 @@
         <v>9</v>
       </c>
       <c r="B527" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C527" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D527">
         <v>3370059</v>
@@ -16244,10 +16244,10 @@
         <v>9</v>
       </c>
       <c r="B528" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C528" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D528">
         <v>3370059</v>
@@ -16273,10 +16273,10 @@
         <v>9</v>
       </c>
       <c r="B529" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C529" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D529">
         <v>3370059</v>
@@ -16302,10 +16302,10 @@
         <v>9</v>
       </c>
       <c r="B530" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C530" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D530">
         <v>3370059</v>
@@ -16331,10 +16331,10 @@
         <v>9</v>
       </c>
       <c r="B531" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C531" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D531">
         <v>3370059</v>
@@ -16360,10 +16360,10 @@
         <v>9</v>
       </c>
       <c r="B532" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C532" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D532">
         <v>3370059</v>
@@ -16389,10 +16389,10 @@
         <v>9</v>
       </c>
       <c r="B533" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C533" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D533">
         <v>3370059</v>
@@ -16418,10 +16418,10 @@
         <v>9</v>
       </c>
       <c r="B534" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C534" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D534">
         <v>3370059</v>
@@ -16447,10 +16447,10 @@
         <v>9</v>
       </c>
       <c r="B535" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C535" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D535">
         <v>3370059</v>
@@ -16476,10 +16476,10 @@
         <v>9</v>
       </c>
       <c r="B536" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C536" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D536">
         <v>3370059</v>
@@ -16505,10 +16505,10 @@
         <v>9</v>
       </c>
       <c r="B537" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C537" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D537">
         <v>3370059</v>
@@ -16534,10 +16534,10 @@
         <v>9</v>
       </c>
       <c r="B538" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C538" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D538">
         <v>583330</v>
@@ -16563,10 +16563,10 @@
         <v>9</v>
       </c>
       <c r="B539" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C539" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D539">
         <v>583330</v>
@@ -16592,10 +16592,10 @@
         <v>9</v>
       </c>
       <c r="B540" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C540" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D540">
         <v>583330</v>
@@ -16621,10 +16621,10 @@
         <v>9</v>
       </c>
       <c r="B541" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C541" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D541">
         <v>583330</v>
@@ -16650,10 +16650,10 @@
         <v>9</v>
       </c>
       <c r="B542" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C542" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D542">
         <v>583330</v>
@@ -16679,10 +16679,10 @@
         <v>9</v>
       </c>
       <c r="B543" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C543" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D543">
         <v>583330</v>
@@ -16708,10 +16708,10 @@
         <v>9</v>
       </c>
       <c r="B544" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C544" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D544">
         <v>583330</v>
@@ -16737,10 +16737,10 @@
         <v>9</v>
       </c>
       <c r="B545" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C545" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D545">
         <v>583330</v>
@@ -16766,10 +16766,10 @@
         <v>9</v>
       </c>
       <c r="B546" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C546" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D546">
         <v>583330</v>
@@ -16795,10 +16795,10 @@
         <v>9</v>
       </c>
       <c r="B547" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C547" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D547">
         <v>583330</v>
@@ -16824,10 +16824,10 @@
         <v>9</v>
       </c>
       <c r="B548" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C548" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D548">
         <v>583330</v>
@@ -16853,10 +16853,10 @@
         <v>9</v>
       </c>
       <c r="B549" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C549" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D549">
         <v>583330</v>
@@ -16882,10 +16882,10 @@
         <v>9</v>
       </c>
       <c r="B550" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C550" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D550">
         <v>583330</v>
@@ -16911,10 +16911,10 @@
         <v>9</v>
       </c>
       <c r="B551" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C551" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D551">
         <v>583330</v>
@@ -16940,10 +16940,10 @@
         <v>9</v>
       </c>
       <c r="B552" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C552" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D552">
         <v>583330</v>
@@ -16969,10 +16969,10 @@
         <v>9</v>
       </c>
       <c r="B553" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C553" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D553">
         <v>583330</v>
@@ -16998,10 +16998,10 @@
         <v>9</v>
       </c>
       <c r="B554" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C554" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D554">
         <v>583330</v>
@@ -17027,10 +17027,10 @@
         <v>9</v>
       </c>
       <c r="B555" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C555" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D555">
         <v>583330</v>
@@ -17056,10 +17056,10 @@
         <v>9</v>
       </c>
       <c r="B556" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C556" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D556">
         <v>583330</v>
@@ -17085,10 +17085,10 @@
         <v>9</v>
       </c>
       <c r="B557" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C557" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D557">
         <v>583330</v>
@@ -17114,10 +17114,10 @@
         <v>9</v>
       </c>
       <c r="B558" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C558" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D558">
         <v>583330</v>
@@ -17143,10 +17143,10 @@
         <v>9</v>
       </c>
       <c r="B559" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C559" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D559">
         <v>583330</v>
@@ -17172,10 +17172,10 @@
         <v>9</v>
       </c>
       <c r="B560" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C560" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D560">
         <v>583330</v>
@@ -17201,10 +17201,10 @@
         <v>9</v>
       </c>
       <c r="B561" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C561" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D561">
         <v>583330</v>
@@ -17230,10 +17230,10 @@
         <v>9</v>
       </c>
       <c r="B562" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C562" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D562">
         <v>583330</v>
@@ -17259,10 +17259,10 @@
         <v>9</v>
       </c>
       <c r="B563" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C563" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D563">
         <v>583330</v>
@@ -17288,10 +17288,10 @@
         <v>9</v>
       </c>
       <c r="B564" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C564" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D564">
         <v>583330</v>
@@ -17317,10 +17317,10 @@
         <v>9</v>
       </c>
       <c r="B565" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C565" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D565">
         <v>583330</v>
@@ -17346,10 +17346,10 @@
         <v>9</v>
       </c>
       <c r="B566" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C566" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D566">
         <v>583330</v>
@@ -17375,10 +17375,10 @@
         <v>9</v>
       </c>
       <c r="B567" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C567" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D567">
         <v>583330</v>
@@ -17404,10 +17404,10 @@
         <v>9</v>
       </c>
       <c r="B568" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C568" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D568">
         <v>583330</v>
@@ -17433,10 +17433,10 @@
         <v>9</v>
       </c>
       <c r="B569" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C569" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D569">
         <v>583330</v>
@@ -17462,10 +17462,10 @@
         <v>9</v>
       </c>
       <c r="B570" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C570" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D570">
         <v>583330</v>
@@ -17491,10 +17491,10 @@
         <v>9</v>
       </c>
       <c r="B571" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C571" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D571">
         <v>583330</v>
@@ -17520,10 +17520,10 @@
         <v>9</v>
       </c>
       <c r="B572" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C572" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D572">
         <v>583330</v>
@@ -17549,10 +17549,10 @@
         <v>9</v>
       </c>
       <c r="B573" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C573" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D573">
         <v>583330</v>
@@ -17578,10 +17578,10 @@
         <v>9</v>
       </c>
       <c r="B574" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C574" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D574">
         <v>583330</v>
@@ -17607,10 +17607,10 @@
         <v>9</v>
       </c>
       <c r="B575" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C575" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D575">
         <v>583330</v>
@@ -17636,10 +17636,10 @@
         <v>9</v>
       </c>
       <c r="B576" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C576" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D576">
         <v>583330</v>
@@ -17665,10 +17665,10 @@
         <v>9</v>
       </c>
       <c r="B577" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C577" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D577">
         <v>583330</v>
@@ -17694,10 +17694,10 @@
         <v>9</v>
       </c>
       <c r="B578" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C578" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D578">
         <v>583330</v>
@@ -17723,10 +17723,10 @@
         <v>9</v>
       </c>
       <c r="B579" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C579" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D579">
         <v>583330</v>
@@ -17752,10 +17752,10 @@
         <v>9</v>
       </c>
       <c r="B580" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C580" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D580">
         <v>583330</v>
@@ -17781,10 +17781,10 @@
         <v>9</v>
       </c>
       <c r="B581" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C581" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D581">
         <v>583330</v>
@@ -17810,10 +17810,10 @@
         <v>9</v>
       </c>
       <c r="B582" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C582" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D582">
         <v>583330</v>
@@ -17839,10 +17839,10 @@
         <v>9</v>
       </c>
       <c r="B583" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C583" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D583">
         <v>583330</v>
@@ -17868,10 +17868,10 @@
         <v>9</v>
       </c>
       <c r="B584" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C584" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D584">
         <v>583330</v>
@@ -17897,10 +17897,10 @@
         <v>9</v>
       </c>
       <c r="B585" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C585" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D585">
         <v>583330</v>
@@ -17926,10 +17926,10 @@
         <v>9</v>
       </c>
       <c r="B586" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C586" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D586">
         <v>583330</v>
@@ -17955,10 +17955,10 @@
         <v>9</v>
       </c>
       <c r="B587" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C587" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D587">
         <v>583330</v>
@@ -17984,10 +17984,10 @@
         <v>9</v>
       </c>
       <c r="B588" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C588" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D588">
         <v>583330</v>
@@ -18013,10 +18013,10 @@
         <v>9</v>
       </c>
       <c r="B589" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C589" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D589">
         <v>583330</v>
@@ -18042,10 +18042,10 @@
         <v>9</v>
       </c>
       <c r="B590" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C590" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D590">
         <v>583330</v>
@@ -18071,10 +18071,10 @@
         <v>9</v>
       </c>
       <c r="B591" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C591" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D591">
         <v>583330</v>
@@ -18100,10 +18100,10 @@
         <v>9</v>
       </c>
       <c r="B592" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C592" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D592">
         <v>583330</v>
@@ -18129,10 +18129,10 @@
         <v>9</v>
       </c>
       <c r="B593" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C593" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D593">
         <v>583330</v>
@@ -18158,10 +18158,10 @@
         <v>9</v>
       </c>
       <c r="B594" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C594" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D594">
         <v>583330</v>
@@ -18187,10 +18187,10 @@
         <v>9</v>
       </c>
       <c r="B595" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C595" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D595">
         <v>583330</v>
@@ -18216,10 +18216,10 @@
         <v>9</v>
       </c>
       <c r="B596" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C596" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D596">
         <v>583330</v>
@@ -18245,10 +18245,10 @@
         <v>9</v>
       </c>
       <c r="B597" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C597" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D597">
         <v>583330</v>
@@ -18274,10 +18274,10 @@
         <v>9</v>
       </c>
       <c r="B598" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C598" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D598">
         <v>583330</v>
@@ -18303,10 +18303,10 @@
         <v>9</v>
       </c>
       <c r="B599" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C599" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D599">
         <v>583330</v>
@@ -18332,10 +18332,10 @@
         <v>9</v>
       </c>
       <c r="B600" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C600" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D600">
         <v>583330</v>
@@ -18361,10 +18361,10 @@
         <v>9</v>
       </c>
       <c r="B601" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C601" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D601">
         <v>583330</v>
@@ -18390,10 +18390,10 @@
         <v>9</v>
       </c>
       <c r="B602" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C602" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D602">
         <v>583330</v>
@@ -18419,10 +18419,10 @@
         <v>9</v>
       </c>
       <c r="B603" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C603" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D603">
         <v>583330</v>
@@ -18448,10 +18448,10 @@
         <v>9</v>
       </c>
       <c r="B604" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C604" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D604">
         <v>583330</v>
